--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-uniq-Markets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-uniq-Final-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87670A23-399E-4A41-B23A-178E7E158C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D705F-6CC1-764C-96DB-7140A82DB040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="-19380" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>TSE.M1.Main</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>بازار ابزار های نوین مالی فرابورس</t>
+  </si>
+  <si>
+    <t>IEE</t>
+  </si>
+  <si>
+    <t>بورس انرژی</t>
   </si>
 </sst>
 </file>
@@ -501,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -666,6 +672,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-uniq-Final-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69F471D-DCB4-4842-9A53-00FE58C913CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F708DD5-21ED-7048-8956-AD133C46719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>MarketId</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>IFB.NFinTools</t>
+  </si>
+  <si>
+    <t>IFB.Paye</t>
+  </si>
+  <si>
+    <t>بازار پایه فرابورس</t>
   </si>
 </sst>
 </file>
@@ -507,11 +513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -680,6 +686,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahdi/Dropbox/d-uniq-Final-Markets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F708DD5-21ED-7048-8956-AD133C46719E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0DE6AB-19AC-A140-AE8D-52F9DC3F907A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
